--- a/Data_files/presentations.xlsx
+++ b/Data_files/presentations.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="380" yWindow="760" windowWidth="28160" windowHeight="13640" tabRatio="500"/>
+    <workbookView xWindow="3400" yWindow="4000" windowWidth="28160" windowHeight="13640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Invited Presentations" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="249">
   <si>
     <t>-</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Sep</t>
   </si>
   <si>
-    <t>Workshop in Intersection of Aging Biology and Pathobiology of Lung Diseases</t>
-  </si>
-  <si>
     <t>National Institute of Aging</t>
   </si>
   <si>
@@ -168,9 +165,6 @@
     <t>Web Science Meets Network Science</t>
   </si>
   <si>
-    <t>Allen Center</t>
-  </si>
-  <si>
     <t>May</t>
   </si>
   <si>
@@ -183,9 +177,6 @@
     <t>Chicago, IL</t>
   </si>
   <si>
-    <t>Workshop on "Shared Organizational Principles in the Computing and Biological Sciences"</t>
-  </si>
-  <si>
     <t>National Science Foundation</t>
   </si>
   <si>
@@ -213,9 +204,6 @@
     <t>Cambridge, MA</t>
   </si>
   <si>
-    <t>William M. Keck Foundation's Distinguished Young Scholar Symposium</t>
-  </si>
-  <si>
     <t>Los Angeles, CA</t>
   </si>
   <si>
@@ -264,9 +252,6 @@
     <t>Wellesley, MA</t>
   </si>
   <si>
-    <t>NIEHS' Conference on Empowering Environmental Health Sciences Research with New Technologies</t>
-  </si>
-  <si>
     <t>Chapel Hill, NC</t>
   </si>
   <si>
@@ -294,9 +279,6 @@
     <t>Boston, MA</t>
   </si>
   <si>
-    <t>NIH Roadmap's Workshop on Interdisciplinary Research Centers</t>
-  </si>
-  <si>
     <t>Salou, Spain</t>
   </si>
   <si>
@@ -423,9 +405,6 @@
     <t>Civil and Environmental Engineering</t>
   </si>
   <si>
-    <t>Flexner Dean's Lecture Series</t>
-  </si>
-  <si>
     <t>Vanderbilt University</t>
   </si>
   <si>
@@ -621,12 +600,6 @@
     <t>Budapest, Hungary</t>
   </si>
   <si>
-    <t>ISTAS Chool on Physics of Biosytesm, Self-Assembly, and Evolution</t>
-  </si>
-  <si>
-    <t>Institute de Fisica Matematica</t>
-  </si>
-  <si>
     <t>Granada, Spain</t>
   </si>
   <si>
@@ -744,9 +717,6 @@
     <t>21st Century Science Initiative Meeting</t>
   </si>
   <si>
-    <t>NIH Roadmap's Interdisciplinary Research Centers Workshop</t>
-  </si>
-  <si>
     <t>Systems Biology Symposium</t>
   </si>
   <si>
@@ -762,22 +732,49 @@
     <t xml:space="preserve">NICO/SONIC </t>
   </si>
   <si>
-    <t>Long Term Ecological Research Groups</t>
-  </si>
-  <si>
     <t>European Complex Systems Society</t>
   </si>
   <si>
-    <t>CCS'15 Satellite -- Quantifying Science Symposium</t>
-  </si>
-  <si>
-    <t>ECCS'13 Satellite -- Big Data in Complex Systems</t>
-  </si>
-  <si>
     <t>Army Research Office</t>
   </si>
   <si>
-    <t>ECCS'13</t>
+    <t>NIH Roadmap -- Interdisciplinary Research Centers Workshop</t>
+  </si>
+  <si>
+    <t>ECCS 2013</t>
+  </si>
+  <si>
+    <t>ECCS 2013 Satellite -- Big Data in Complex Systems</t>
+  </si>
+  <si>
+    <t>CCS 2015 Satellite -- Quantifying Science Symposium</t>
+  </si>
+  <si>
+    <t>Flexner Dean Lecture Series</t>
+  </si>
+  <si>
+    <t>William M. Keck Foundation -- Distinguished Young Scholar Symposium</t>
+  </si>
+  <si>
+    <t>Instituto de Fisica Matematica</t>
+  </si>
+  <si>
+    <t>ISTAS School on The Physics of Biosytesm, Self-Assembly, and Evolution</t>
+  </si>
+  <si>
+    <t>Workshop on The Intersection of Aging Biology and Pathobiology of Lung Diseases</t>
+  </si>
+  <si>
+    <t>Workshop on Shared Organizational Principles in the Computing and Biological Sciences</t>
+  </si>
+  <si>
+    <t>NIH Roadmap -- Workshop on Interdisciplinary Research Centers</t>
+  </si>
+  <si>
+    <t>Conference on Empowering Environmental Health Sciences Research with New Technologies</t>
+  </si>
+  <si>
+    <t>Long Term Ecological Research Network</t>
   </si>
 </sst>
 </file>
@@ -1170,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1189,7 +1186,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -1209,19 +1206,19 @@
         <v>1995</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1238,13 +1235,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="F3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1261,13 +1258,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F4" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="G4" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1278,19 +1275,19 @@
         <v>1996</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F5" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G5" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1301,19 +1298,19 @@
         <v>1996</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F6" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G6" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1324,19 +1321,19 @@
         <v>1996</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1353,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="F8" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G8" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1376,13 +1373,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F9" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G9" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1399,13 +1396,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F10" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G10" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1416,19 +1413,19 @@
         <v>1999</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1439,19 +1436,19 @@
         <v>2000</v>
       </c>
       <c r="C12" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D12" t="s">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F12" t="s">
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1463,19 +1460,19 @@
         <v>2000</v>
       </c>
       <c r="C13" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D13" t="s">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G13" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1487,19 +1484,19 @@
         <v>2000</v>
       </c>
       <c r="C14" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D14" t="s">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F14" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G14" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1514,16 +1511,16 @@
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F15" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="G15" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1535,19 +1532,19 @@
         <v>2000</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F16" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G16" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1559,19 +1556,19 @@
         <v>2000</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F17" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G17" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1583,19 +1580,19 @@
         <v>2001</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="F18" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G18" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1607,19 +1604,19 @@
         <v>2001</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F19" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G19" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1631,19 +1628,19 @@
         <v>2001</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
         <v>0</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="F20" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G20" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1658,16 +1655,16 @@
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F21" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="G21" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1685,13 +1682,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F22" t="s">
         <v>4</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1709,13 +1706,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F23" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G23" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1733,13 +1730,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F24" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="G24" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1751,19 +1748,19 @@
         <v>2002</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D25" t="s">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F25" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G25" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1775,19 +1772,19 @@
         <v>2002</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F26" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G26" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1799,19 +1796,19 @@
         <v>2003</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F27" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G27" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1823,19 +1820,19 @@
         <v>2003</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F28" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G28" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1853,13 +1850,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F29" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G29" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1877,13 +1874,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="F30" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="G30" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1895,19 +1892,19 @@
         <v>2003</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D31" t="s">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F31" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G31" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1919,19 +1916,19 @@
         <v>2003</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D32" t="s">
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F32" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G32" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1943,19 +1940,19 @@
         <v>2004</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D33" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="G33" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1967,19 +1964,19 @@
         <v>2004</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D34" t="s">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="F34" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="G34" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1991,19 +1988,19 @@
         <v>2004</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D35" t="s">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F35" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -2015,19 +2012,19 @@
         <v>2005</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" t="s">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F36" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="G36" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -2042,16 +2039,16 @@
         <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="F37" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="G37" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -2069,13 +2066,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F38" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G38" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -2093,13 +2090,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="F39" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="G39" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -2117,13 +2114,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G40" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -2135,19 +2132,19 @@
         <v>2006</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E41" t="s">
-        <v>88</v>
+        <v>246</v>
       </c>
       <c r="F41" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -2159,19 +2156,19 @@
         <v>2006</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E42" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F42" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -2186,16 +2183,16 @@
         <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E43" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F43" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="G43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -2213,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F44" t="s">
         <v>4</v>
       </c>
       <c r="G44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -2243,7 +2240,7 @@
         <v>4</v>
       </c>
       <c r="G45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -2255,19 +2252,19 @@
         <v>2006</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D46" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E46" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F46" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -2279,19 +2276,19 @@
         <v>2006</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D47" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E47" t="s">
-        <v>78</v>
+        <v>247</v>
       </c>
       <c r="F47" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G47" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -2303,19 +2300,19 @@
         <v>2007</v>
       </c>
       <c r="C48" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D48" t="s">
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F48" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -2327,19 +2324,19 @@
         <v>2007</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D49" t="s">
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F49" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G49" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -2351,19 +2348,19 @@
         <v>2007</v>
       </c>
       <c r="C50" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D50" t="s">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F50" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G50" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -2375,19 +2372,19 @@
         <v>2007</v>
       </c>
       <c r="C51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D51" t="s">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="F51" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G51" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -2399,19 +2396,19 @@
         <v>2008</v>
       </c>
       <c r="C52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D52" t="s">
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F52" t="s">
         <v>4</v>
       </c>
       <c r="G52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -2423,19 +2420,19 @@
         <v>2008</v>
       </c>
       <c r="C53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D53" t="s">
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F53" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -2447,19 +2444,19 @@
         <v>2008</v>
       </c>
       <c r="C54" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D54" t="s">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F54" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G54" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -2471,19 +2468,19 @@
         <v>2008</v>
       </c>
       <c r="C55" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E55" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F55" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G55" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -2498,16 +2495,16 @@
         <v>19</v>
       </c>
       <c r="D56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E56" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F56" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G56" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -2522,16 +2519,16 @@
         <v>19</v>
       </c>
       <c r="D57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E57" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F57" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G57" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -2543,19 +2540,19 @@
         <v>2008</v>
       </c>
       <c r="C58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D58" t="s">
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F58" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="G58" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -2573,13 +2570,13 @@
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F59" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="G59" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -2597,13 +2594,13 @@
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F60" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G60" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -2615,19 +2612,19 @@
         <v>2009</v>
       </c>
       <c r="C61" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" t="s">
         <v>25</v>
       </c>
-      <c r="D61" t="s">
-        <v>26</v>
-      </c>
       <c r="E61" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F61" t="s">
         <v>6</v>
       </c>
       <c r="G61" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -2639,19 +2636,19 @@
         <v>2009</v>
       </c>
       <c r="C62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D62" t="s">
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F62" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G62" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -2669,13 +2666,13 @@
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F63" t="s">
         <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -2693,13 +2690,13 @@
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F64" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G64" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -2711,19 +2708,19 @@
         <v>2010</v>
       </c>
       <c r="C65" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F65" t="s">
+        <v>231</v>
+      </c>
+      <c r="G65" t="s">
         <v>47</v>
-      </c>
-      <c r="D65" t="s">
-        <v>26</v>
-      </c>
-      <c r="E65" t="s">
-        <v>48</v>
-      </c>
-      <c r="F65" t="s">
-        <v>241</v>
-      </c>
-      <c r="G65" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -2735,19 +2732,19 @@
         <v>2010</v>
       </c>
       <c r="C66" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D66" t="s">
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="F66" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="G66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -2759,19 +2756,19 @@
         <v>2010</v>
       </c>
       <c r="C67" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D67" t="s">
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>51</v>
+        <v>245</v>
       </c>
       <c r="F67" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G67" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -2783,19 +2780,19 @@
         <v>2010</v>
       </c>
       <c r="C68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D68" t="s">
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F68" t="s">
         <v>5</v>
       </c>
       <c r="G68" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -2807,19 +2804,19 @@
         <v>2011</v>
       </c>
       <c r="C69" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D69" t="s">
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F69" t="s">
         <v>5</v>
       </c>
       <c r="G69" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -2837,13 +2834,13 @@
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>46</v>
+        <v>233</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -2861,13 +2858,13 @@
         <v>0</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F71" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -2885,13 +2882,13 @@
         <v>0</v>
       </c>
       <c r="E72" t="s">
+        <v>42</v>
+      </c>
+      <c r="F72" t="s">
+        <v>210</v>
+      </c>
+      <c r="G72" t="s">
         <v>43</v>
-      </c>
-      <c r="F72" t="s">
-        <v>219</v>
-      </c>
-      <c r="G72" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -2903,19 +2900,19 @@
         <v>2012</v>
       </c>
       <c r="C73" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D73" t="s">
+        <v>40</v>
+      </c>
+      <c r="E73" t="s">
         <v>41</v>
       </c>
-      <c r="E73" t="s">
-        <v>42</v>
-      </c>
       <c r="F73" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -2927,19 +2924,19 @@
         <v>2012</v>
       </c>
       <c r="C74" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D74" t="s">
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F74" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G74" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -2954,16 +2951,16 @@
         <v>21</v>
       </c>
       <c r="D75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E75" t="s">
+        <v>38</v>
+      </c>
+      <c r="F75" t="s">
+        <v>248</v>
+      </c>
+      <c r="G75" t="s">
         <v>39</v>
-      </c>
-      <c r="F75" t="s">
-        <v>244</v>
-      </c>
-      <c r="G75" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -2975,19 +2972,19 @@
         <v>2013</v>
       </c>
       <c r="C76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E76" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="F76" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="G76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -3002,16 +2999,16 @@
         <v>21</v>
       </c>
       <c r="D77" t="s">
+        <v>33</v>
+      </c>
+      <c r="E77" t="s">
+        <v>237</v>
+      </c>
+      <c r="F77" t="s">
+        <v>234</v>
+      </c>
+      <c r="G77" t="s">
         <v>34</v>
-      </c>
-      <c r="E77" t="s">
-        <v>249</v>
-      </c>
-      <c r="F77" t="s">
-        <v>245</v>
-      </c>
-      <c r="G77" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -3029,13 +3026,13 @@
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F78" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="G78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -3047,19 +3044,19 @@
         <v>2013</v>
       </c>
       <c r="C79" t="s">
+        <v>31</v>
+      </c>
+      <c r="D79" t="s">
+        <v>0</v>
+      </c>
+      <c r="E79" t="s">
         <v>32</v>
       </c>
-      <c r="D79" t="s">
-        <v>0</v>
-      </c>
-      <c r="E79" t="s">
-        <v>33</v>
-      </c>
       <c r="F79" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="G79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -3071,19 +3068,19 @@
         <v>2014</v>
       </c>
       <c r="C80" t="s">
+        <v>27</v>
+      </c>
+      <c r="D80" t="s">
+        <v>0</v>
+      </c>
+      <c r="E80" t="s">
         <v>28</v>
       </c>
-      <c r="D80" t="s">
-        <v>0</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>29</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>30</v>
-      </c>
-      <c r="G80" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -3095,19 +3092,19 @@
         <v>2015</v>
       </c>
       <c r="C81" t="s">
+        <v>24</v>
+      </c>
+      <c r="D81" t="s">
         <v>25</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
+        <v>211</v>
+      </c>
+      <c r="F81" t="s">
+        <v>212</v>
+      </c>
+      <c r="G81" t="s">
         <v>26</v>
-      </c>
-      <c r="E81" t="s">
-        <v>220</v>
-      </c>
-      <c r="F81" t="s">
-        <v>221</v>
-      </c>
-      <c r="G81" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -3125,13 +3122,13 @@
         <v>0</v>
       </c>
       <c r="E82" t="s">
+        <v>244</v>
+      </c>
+      <c r="F82" t="s">
         <v>22</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>23</v>
-      </c>
-      <c r="G82" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -3149,10 +3146,10 @@
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F83" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="G83" t="s">
         <v>20</v>
@@ -3167,19 +3164,19 @@
         <v>2015</v>
       </c>
       <c r="C84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D84" t="s">
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F84" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -3245,13 +3242,13 @@
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F87" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G87" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -3266,16 +3263,16 @@
         <v>11</v>
       </c>
       <c r="D88" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E88" t="s">
         <v>0</v>
       </c>
       <c r="F88" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G88" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -3287,19 +3284,19 @@
         <v>2016</v>
       </c>
       <c r="C89" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D89" t="s">
-        <v>131</v>
+        <v>240</v>
       </c>
       <c r="E89" t="s">
         <v>2</v>
       </c>
       <c r="F89" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G89" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -3311,19 +3308,19 @@
         <v>2016</v>
       </c>
       <c r="C90" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D90" t="s">
         <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F90" t="s">
         <v>5</v>
       </c>
       <c r="G90" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -3338,16 +3335,16 @@
         <v>19</v>
       </c>
       <c r="D91" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E91" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F91" t="s">
         <v>6</v>
       </c>
       <c r="G91" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -3383,7 +3380,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -3409,13 +3406,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -3426,19 +3423,19 @@
         <v>1996</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3449,19 +3446,19 @@
         <v>1997</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3478,13 +3475,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>197</v>
+        <v>243</v>
       </c>
       <c r="F5" t="s">
-        <v>198</v>
+        <v>242</v>
       </c>
       <c r="G5" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3501,13 +3498,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F6" t="s">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3518,19 +3515,19 @@
         <v>1999</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="F7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="G7" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -3541,19 +3538,19 @@
         <v>2001</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="F8" t="s">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3564,19 +3561,19 @@
         <v>2002</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -3587,19 +3584,19 @@
         <v>2003</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3610,19 +3607,19 @@
         <v>2004</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -3639,13 +3636,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>241</v>
       </c>
       <c r="F12" t="s">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3663,13 +3660,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>241</v>
       </c>
       <c r="F13" t="s">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -3681,19 +3678,19 @@
         <v>2009</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -3711,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>241</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -3735,13 +3732,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>241</v>
       </c>
       <c r="F16" t="s">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -3753,19 +3750,19 @@
         <v>2011</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -3783,13 +3780,13 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Data_files/presentations.xlsx
+++ b/Data_files/presentations.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3400" yWindow="4000" windowWidth="28160" windowHeight="13640" tabRatio="500"/>
+    <workbookView xWindow="500" yWindow="4780" windowWidth="28160" windowHeight="13640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Invited Presentations" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="254">
   <si>
     <t>-</t>
   </si>
@@ -775,6 +775,21 @@
   </si>
   <si>
     <t>Long Term Ecological Research Network</t>
+  </si>
+  <si>
+    <t>Biological Physics</t>
+  </si>
+  <si>
+    <t>Celebrating 20 years of JSMF’s support for Complex Systems Science</t>
+  </si>
+  <si>
+    <t>Advances in complex systems</t>
+  </si>
+  <si>
+    <t>Lake Como School of Advanced Studies</t>
+  </si>
+  <si>
+    <t>Como, Italy</t>
   </si>
 </sst>
 </file>
@@ -1165,10 +1180,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3345,6 +3360,78 @@
       </c>
       <c r="G91" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <f>A91+1</f>
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>2017</v>
+      </c>
+      <c r="C92" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s">
+        <v>249</v>
+      </c>
+      <c r="E92" t="s">
+        <v>167</v>
+      </c>
+      <c r="F92" t="s">
+        <v>162</v>
+      </c>
+      <c r="G92" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <f>A92+1</f>
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>2017</v>
+      </c>
+      <c r="C93" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93" t="s">
+        <v>0</v>
+      </c>
+      <c r="E93" t="s">
+        <v>250</v>
+      </c>
+      <c r="F93" t="s">
+        <v>227</v>
+      </c>
+      <c r="G93" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <f>A93+1</f>
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>2017</v>
+      </c>
+      <c r="C94" t="s">
+        <v>86</v>
+      </c>
+      <c r="D94" t="s">
+        <v>0</v>
+      </c>
+      <c r="E94" t="s">
+        <v>251</v>
+      </c>
+      <c r="F94" t="s">
+        <v>252</v>
+      </c>
+      <c r="G94" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/Data_files/presentations.xlsx
+++ b/Data_files/presentations.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amaral/PycharmProjects/maintaining_latex_cv/Data_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amaral/Box Sync/CodingProjects/maintaining_latex_cv/Data_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83146A21-75B8-4746-98BA-2760D8F39873}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="4780" windowWidth="28160" windowHeight="13640" tabRatio="500"/>
+    <workbookView xWindow="40" yWindow="3100" windowWidth="28160" windowHeight="13640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invited Presentations" sheetId="5" r:id="rId1"/>
     <sheet name="Contributed Presentations" sheetId="7" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -795,7 +796,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -885,7 +886,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -895,6 +896,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -912,6 +917,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1179,22 +1187,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="10.83203125" style="6"/>
     <col min="4" max="4" width="32.33203125" customWidth="1"/>
     <col min="5" max="5" width="49.1640625" customWidth="1"/>
     <col min="6" max="7" width="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1217,7 +1226,7 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="6">
         <v>1995</v>
       </c>
       <c r="C2" t="s">
@@ -1240,7 +1249,7 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="6">
         <v>1995</v>
       </c>
       <c r="C3" t="s">
@@ -1263,7 +1272,7 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="6">
         <v>1996</v>
       </c>
       <c r="C4" t="s">
@@ -1286,7 +1295,7 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="6">
         <v>1996</v>
       </c>
       <c r="C5" t="s">
@@ -1309,7 +1318,7 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="6">
         <v>1996</v>
       </c>
       <c r="C6" t="s">
@@ -1332,7 +1341,7 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="6">
         <v>1996</v>
       </c>
       <c r="C7" t="s">
@@ -1355,7 +1364,7 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="6">
         <v>1996</v>
       </c>
       <c r="C8" t="s">
@@ -1378,7 +1387,7 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="6">
         <v>1997</v>
       </c>
       <c r="C9" t="s">
@@ -1401,7 +1410,7 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="6">
         <v>1999</v>
       </c>
       <c r="C10" t="s">
@@ -1424,7 +1433,7 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="6">
         <v>1999</v>
       </c>
       <c r="C11" t="s">
@@ -1447,7 +1456,7 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="6">
         <v>2000</v>
       </c>
       <c r="C12" t="s">
@@ -1471,7 +1480,7 @@
         <f>A12+1</f>
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="6">
         <v>2000</v>
       </c>
       <c r="C13" t="s">
@@ -1495,7 +1504,7 @@
         <f t="shared" ref="A14:A17" si="0">A13+1</f>
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="6">
         <v>2000</v>
       </c>
       <c r="C14" t="s">
@@ -1519,7 +1528,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="6">
         <v>2000</v>
       </c>
       <c r="C15" t="s">
@@ -1543,7 +1552,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="6">
         <v>2000</v>
       </c>
       <c r="C16" t="s">
@@ -1567,7 +1576,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="6">
         <v>2000</v>
       </c>
       <c r="C17" t="s">
@@ -1591,7 +1600,7 @@
         <f>A17+1</f>
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="6">
         <v>2001</v>
       </c>
       <c r="C18" t="s">
@@ -1615,7 +1624,7 @@
         <f t="shared" ref="A19:A82" si="1">A18+1</f>
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="6">
         <v>2001</v>
       </c>
       <c r="C19" t="s">
@@ -1639,7 +1648,7 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="6">
         <v>2001</v>
       </c>
       <c r="C20" t="s">
@@ -1663,7 +1672,7 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="6">
         <v>2002</v>
       </c>
       <c r="C21" t="s">
@@ -1687,7 +1696,7 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="6">
         <v>2002</v>
       </c>
       <c r="C22" t="s">
@@ -1711,7 +1720,7 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="6">
         <v>2002</v>
       </c>
       <c r="C23" t="s">
@@ -1735,7 +1744,7 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="6">
         <v>2002</v>
       </c>
       <c r="C24" t="s">
@@ -1759,7 +1768,7 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="6">
         <v>2002</v>
       </c>
       <c r="C25" t="s">
@@ -1783,7 +1792,7 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="6">
         <v>2002</v>
       </c>
       <c r="C26" t="s">
@@ -1807,7 +1816,7 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="6">
         <v>2003</v>
       </c>
       <c r="C27" t="s">
@@ -1831,7 +1840,7 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="6">
         <v>2003</v>
       </c>
       <c r="C28" t="s">
@@ -1855,7 +1864,7 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="6">
         <v>2003</v>
       </c>
       <c r="C29" t="s">
@@ -1879,7 +1888,7 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="6">
         <v>2003</v>
       </c>
       <c r="C30" t="s">
@@ -1903,7 +1912,7 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="6">
         <v>2003</v>
       </c>
       <c r="C31" t="s">
@@ -1927,7 +1936,7 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="6">
         <v>2003</v>
       </c>
       <c r="C32" t="s">
@@ -1951,7 +1960,7 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="6">
         <v>2004</v>
       </c>
       <c r="C33" t="s">
@@ -1975,7 +1984,7 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="6">
         <v>2004</v>
       </c>
       <c r="C34" t="s">
@@ -1999,7 +2008,7 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="6">
         <v>2004</v>
       </c>
       <c r="C35" t="s">
@@ -2023,7 +2032,7 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="6">
         <v>2005</v>
       </c>
       <c r="C36" t="s">
@@ -2047,7 +2056,7 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="6">
         <v>2005</v>
       </c>
       <c r="C37" t="s">
@@ -2071,7 +2080,7 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="6">
         <v>2005</v>
       </c>
       <c r="C38" t="s">
@@ -2095,7 +2104,7 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="6">
         <v>2005</v>
       </c>
       <c r="C39" t="s">
@@ -2119,7 +2128,7 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="6">
         <v>2005</v>
       </c>
       <c r="C40" t="s">
@@ -2143,7 +2152,7 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="6">
         <v>2006</v>
       </c>
       <c r="C41" t="s">
@@ -2167,7 +2176,7 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="6">
         <v>2006</v>
       </c>
       <c r="C42" t="s">
@@ -2191,7 +2200,7 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="6">
         <v>2006</v>
       </c>
       <c r="C43" t="s">
@@ -2215,7 +2224,7 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="6">
         <v>2006</v>
       </c>
       <c r="C44" t="s">
@@ -2239,7 +2248,7 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="6">
         <v>2006</v>
       </c>
       <c r="C45" t="s">
@@ -2263,7 +2272,7 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="6">
         <v>2006</v>
       </c>
       <c r="C46" t="s">
@@ -2287,7 +2296,7 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="6">
         <v>2006</v>
       </c>
       <c r="C47" t="s">
@@ -2311,7 +2320,7 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="6">
         <v>2007</v>
       </c>
       <c r="C48" t="s">
@@ -2335,7 +2344,7 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="6">
         <v>2007</v>
       </c>
       <c r="C49" t="s">
@@ -2359,7 +2368,7 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="6">
         <v>2007</v>
       </c>
       <c r="C50" t="s">
@@ -2383,7 +2392,7 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="6">
         <v>2007</v>
       </c>
       <c r="C51" t="s">
@@ -2407,7 +2416,7 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="6">
         <v>2008</v>
       </c>
       <c r="C52" t="s">
@@ -2431,7 +2440,7 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="6">
         <v>2008</v>
       </c>
       <c r="C53" t="s">
@@ -2455,7 +2464,7 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="6">
         <v>2008</v>
       </c>
       <c r="C54" t="s">
@@ -2479,7 +2488,7 @@
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="6">
         <v>2008</v>
       </c>
       <c r="C55" t="s">
@@ -2503,7 +2512,7 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="6">
         <v>2008</v>
       </c>
       <c r="C56" t="s">
@@ -2527,7 +2536,7 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="6">
         <v>2008</v>
       </c>
       <c r="C57" t="s">
@@ -2551,7 +2560,7 @@
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="6">
         <v>2008</v>
       </c>
       <c r="C58" t="s">
@@ -2575,7 +2584,7 @@
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="6">
         <v>2009</v>
       </c>
       <c r="C59" t="s">
@@ -2599,7 +2608,7 @@
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="6">
         <v>2009</v>
       </c>
       <c r="C60" t="s">
@@ -2623,7 +2632,7 @@
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="6">
         <v>2009</v>
       </c>
       <c r="C61" t="s">
@@ -2647,7 +2656,7 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="6">
         <v>2009</v>
       </c>
       <c r="C62" t="s">
@@ -2671,7 +2680,7 @@
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="6">
         <v>2009</v>
       </c>
       <c r="C63" t="s">
@@ -2695,7 +2704,7 @@
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="6">
         <v>2010</v>
       </c>
       <c r="C64" t="s">
@@ -2719,7 +2728,7 @@
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="6">
         <v>2010</v>
       </c>
       <c r="C65" t="s">
@@ -2743,7 +2752,7 @@
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="6">
         <v>2010</v>
       </c>
       <c r="C66" t="s">
@@ -2767,7 +2776,7 @@
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="6">
         <v>2010</v>
       </c>
       <c r="C67" t="s">
@@ -2791,7 +2800,7 @@
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="6">
         <v>2010</v>
       </c>
       <c r="C68" t="s">
@@ -2815,7 +2824,7 @@
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="6">
         <v>2011</v>
       </c>
       <c r="C69" t="s">
@@ -2839,7 +2848,7 @@
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="6">
         <v>2011</v>
       </c>
       <c r="C70" t="s">
@@ -2863,7 +2872,7 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="6">
         <v>2011</v>
       </c>
       <c r="C71" t="s">
@@ -2887,7 +2896,7 @@
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="6">
         <v>2011</v>
       </c>
       <c r="C72" t="s">
@@ -2911,7 +2920,7 @@
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="6">
         <v>2012</v>
       </c>
       <c r="C73" t="s">
@@ -2935,7 +2944,7 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="6">
         <v>2012</v>
       </c>
       <c r="C74" t="s">
@@ -2959,7 +2968,7 @@
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="6">
         <v>2012</v>
       </c>
       <c r="C75" t="s">
@@ -2983,7 +2992,7 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="6">
         <v>2013</v>
       </c>
       <c r="C76" t="s">
@@ -3007,7 +3016,7 @@
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="6">
         <v>2013</v>
       </c>
       <c r="C77" t="s">
@@ -3031,7 +3040,7 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="6">
         <v>2013</v>
       </c>
       <c r="C78" t="s">
@@ -3055,7 +3064,7 @@
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="6">
         <v>2013</v>
       </c>
       <c r="C79" t="s">
@@ -3079,7 +3088,7 @@
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="6">
         <v>2014</v>
       </c>
       <c r="C80" t="s">
@@ -3103,7 +3112,7 @@
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="6">
         <v>2015</v>
       </c>
       <c r="C81" t="s">
@@ -3127,7 +3136,7 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="6">
         <v>2015</v>
       </c>
       <c r="C82" t="s">
@@ -3151,7 +3160,7 @@
         <f t="shared" ref="A83:A91" si="2">A82+1</f>
         <v>81</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="6">
         <v>2015</v>
       </c>
       <c r="C83" t="s">
@@ -3175,7 +3184,7 @@
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="6">
         <v>2015</v>
       </c>
       <c r="C84" t="s">
@@ -3199,7 +3208,7 @@
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="6">
         <v>2016</v>
       </c>
       <c r="C85" t="s">
@@ -3223,7 +3232,7 @@
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="6">
         <v>2016</v>
       </c>
       <c r="C86" t="s">
@@ -3247,7 +3256,7 @@
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="6">
         <v>2016</v>
       </c>
       <c r="C87" t="s">
@@ -3271,7 +3280,7 @@
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="6">
         <v>2016</v>
       </c>
       <c r="C88" t="s">
@@ -3295,7 +3304,7 @@
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="6">
         <v>2016</v>
       </c>
       <c r="C89" t="s">
@@ -3319,7 +3328,7 @@
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="6">
         <v>2016</v>
       </c>
       <c r="C90" t="s">
@@ -3343,7 +3352,7 @@
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="6">
         <v>2016</v>
       </c>
       <c r="C91" t="s">
@@ -3367,7 +3376,7 @@
         <f>A91+1</f>
         <v>90</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="6">
         <v>2017</v>
       </c>
       <c r="C92" t="s">
@@ -3391,7 +3400,7 @@
         <f>A92+1</f>
         <v>91</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="6">
         <v>2017</v>
       </c>
       <c r="C93" t="s">
@@ -3415,7 +3424,7 @@
         <f>A93+1</f>
         <v>92</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="6">
         <v>2017</v>
       </c>
       <c r="C94" t="s">
@@ -3433,6 +3442,9 @@
       <c r="G94" t="s">
         <v>253</v>
       </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="1"/>
     </row>
   </sheetData>
   <sortState ref="B2:G91">
@@ -3445,22 +3457,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A19" sqref="A19:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="10.83203125" style="6"/>
     <col min="4" max="4" width="29.6640625" customWidth="1"/>
     <col min="5" max="5" width="56.6640625" customWidth="1"/>
     <col min="6" max="7" width="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3483,7 +3496,7 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="6">
         <v>1996</v>
       </c>
       <c r="C2" t="s">
@@ -3506,7 +3519,7 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="6">
         <v>1996</v>
       </c>
       <c r="C3" t="s">
@@ -3529,7 +3542,7 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="6">
         <v>1997</v>
       </c>
       <c r="C4" t="s">
@@ -3552,7 +3565,7 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="6">
         <v>1998</v>
       </c>
       <c r="C5" t="s">
@@ -3575,7 +3588,7 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="6">
         <v>1998</v>
       </c>
       <c r="C6" t="s">
@@ -3598,7 +3611,7 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="6">
         <v>1999</v>
       </c>
       <c r="C7" t="s">
@@ -3621,7 +3634,7 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="6">
         <v>2001</v>
       </c>
       <c r="C8" t="s">
@@ -3644,7 +3657,7 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="6">
         <v>2002</v>
       </c>
       <c r="C9" t="s">
@@ -3667,7 +3680,7 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="6">
         <v>2003</v>
       </c>
       <c r="C10" t="s">
@@ -3690,7 +3703,7 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="6">
         <v>2004</v>
       </c>
       <c r="C11" t="s">
@@ -3713,7 +3726,7 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="6">
         <v>2007</v>
       </c>
       <c r="C12" t="s">
@@ -3737,7 +3750,7 @@
         <f>A12+1</f>
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="6">
         <v>2008</v>
       </c>
       <c r="C13" t="s">
@@ -3761,7 +3774,7 @@
         <f t="shared" ref="A14:A17" si="0">A13+1</f>
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="6">
         <v>2009</v>
       </c>
       <c r="C14" t="s">
@@ -3785,7 +3798,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="6">
         <v>2010</v>
       </c>
       <c r="C15" t="s">
@@ -3809,7 +3822,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="6">
         <v>2011</v>
       </c>
       <c r="C16" t="s">
@@ -3833,7 +3846,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="6">
         <v>2011</v>
       </c>
       <c r="C17" t="s">
@@ -3857,7 +3870,7 @@
         <f>A17+1</f>
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="6">
         <v>2014</v>
       </c>
       <c r="C18" t="s">
